--- a/projet.xlsx
+++ b/projet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Affichage</t>
   </si>
@@ -24,31 +24,70 @@
     <t>Metier</t>
   </si>
   <si>
+    <t>Autres</t>
+  </si>
+  <si>
     <t>conception</t>
   </si>
   <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cours</t>
+  </si>
+  <si>
     <t>tables</t>
   </si>
   <si>
-    <t xml:space="preserve">En cours</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">donnees test</t>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donnees tests</t>
   </si>
   <si>
     <t>classes</t>
   </si>
   <si>
-    <t>Fait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ donnees statics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">css + js</t>
+    <t xml:space="preserve">liste avions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donnees statics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS Springboot</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">details + kilometrages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assurance  -1mois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assurance  -3mois</t>
+  </si>
+  <si>
+    <t>ionicToWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload ionic</t>
+  </si>
+  <si>
+    <t>ElephantSQL</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Netlify</t>
+  </si>
+  <si>
+    <t>Taches</t>
+  </si>
+  <si>
+    <t>Postman</t>
   </si>
 </sst>
 </file>
@@ -83,6 +122,12 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
     <fill/>
     <fill>
       <patternFill patternType="solid">
@@ -90,14 +135,8 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -105,17 +144,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,179 +719,284 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="17.00390625"/>
+    <col customWidth="1" min="3" max="3" width="20.7109375"/>
     <col customWidth="1" min="4" max="4" width="18.7109375"/>
     <col customWidth="1" min="5" max="5" width="19.7109375"/>
+    <col customWidth="1" min="6" max="6" width="14.421875"/>
     <col customWidth="1" min="8" max="8" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B10" si="0">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B22" si="1">B10+1</f>
+      <c r="B11" s="4">
+        <f t="shared" ref="B11:B18" si="1">B10+1</f>
         <v>9</v>
       </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="2">
-        <f t="shared" si="1"/>
+      <c r="B19" s="4">
+        <f>B18+1</f>
         <v>17</v>
       </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="2">
-        <f t="shared" si="1"/>
+      <c r="B20" s="4">
+        <f>B19+1</f>
         <v>18</v>
       </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="2">
-        <f t="shared" si="1"/>
+      <c r="B21" s="4">
+        <f>B20+1</f>
         <v>19</v>
       </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="2">
-        <f t="shared" si="1"/>
+      <c r="B22" s="4">
+        <f>B21+1</f>
         <v>20</v>
       </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:E11"/>
+  </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>

--- a/projet.xlsx
+++ b/projet.xlsx
@@ -857,7 +857,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="4">
-        <f t="shared" ref="B11:B18" si="1">B10+1</f>
+        <f t="shared" ref="B11:B22" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -913,7 +913,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="4">
-        <f>B18+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="7"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="B20" s="4">
-        <f>B19+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="7"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="21" ht="14.25">
       <c r="B21" s="4">
-        <f>B20+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="7"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" s="4">
-        <f>B21+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="7"/>

--- a/projet.xlsx
+++ b/projet.xlsx
@@ -818,7 +818,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -925,7 +925,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
